--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2265.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2265.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152199974238362</v>
+        <v>1.230493664741516</v>
       </c>
       <c r="B1">
-        <v>2.259021312166285</v>
+        <v>2.828868389129639</v>
       </c>
       <c r="C1">
-        <v>5.782395832776899</v>
+        <v>4.816621780395508</v>
       </c>
       <c r="D1">
-        <v>2.672694645914953</v>
+        <v>2.07628607749939</v>
       </c>
       <c r="E1">
-        <v>1.220549915811404</v>
+        <v>1.156054496765137</v>
       </c>
     </row>
   </sheetData>
